--- a/回合制战斗说明.xlsx
+++ b/回合制战斗说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DE2934-5489-47C6-803D-CAE4D4E06B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B0F1E-5B98-44A2-8465-3B7B39D0D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>概览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个角色的回合分为四个阶段：回合开始阶段、行动阶段、行动结束阶段、回合结束阶段，阶段的区分意义在于提供角色行动和BUFF判定的时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在角色的回合开始之前，需要先对场上所有单位的速度属性进行排序，以确定行动的先后顺序，并显示在上方的排序栏UI中，规则如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.战斗开始后，触发buff并按速度由大到小进行排序，决定本轮次的行动顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.速度相同时，按照剩余生命值百分比的大小进行排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.速度和剩余生命值百分比均相同时，随机排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.每个角色行动后，速度属性如果发生变化，则本轮次未进入回合的角色重新排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一名角色的回合时，首先进入回合开始阶段，将按照顺序执行以下步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.触发已有的buff效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.添加符合条件的遗物、装备和道具buff效果（放在第二步意味着当回合添加的buff不会触发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.进行死亡判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.结束此阶段，进入行动阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,6 +202,50 @@
         <a:xfrm>
           <a:off x="581025" y="457200"/>
           <a:ext cx="9704762" cy="5914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446917</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C8C4CD-A090-C044-E962-86113DE16CE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="7381875"/>
+          <a:ext cx="6066667" cy="2104762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -420,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -436,6 +536,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/回合制战斗说明.xlsx
+++ b/回合制战斗说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832B0F1E-5B98-44A2-8465-3B7B39D0D24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F04CDB-4A14-4BDF-B08C-14B9DDD35176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>概览</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,19 +71,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.添加符合条件的遗物、装备和道具buff效果（放在第二步意味着当回合添加的buff不会触发）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.进行死亡判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.结束此阶段，进入行动阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行动阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.添加符合条件的遗物、装备、道具和技能buff效果（放在第二步意味着当阶段添加的buff不会触发）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.状态变更和进行死亡判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.状态变更（如造成伤害等）和进行死亡判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.玩家行动后，结束此阶段，进入行动结束阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动结束阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动结束阶段执行以下步骤：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.如当前角色仍有行动次数，则重新进入行动阶段，否则进入回合结束阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅在行动阶段，玩家才可以选择使用道具、技能或其它行动，是否消耗行动次数由行动本身决定，执行步骤如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处对于阶段存疑需要讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.进入下一个角色的回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分阶段的目的是为了表示清楚在什么时间发生了什么事情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,14 +179,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -520,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K57"/>
+  <dimension ref="B2:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -571,39 +700,135 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="57" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>14</v>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="5"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="7"/>
+      <c r="P62" s="8"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N63" s="9"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="2:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/回合制战斗说明.xlsx
+++ b/回合制战斗说明.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project_game\design_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F04CDB-4A14-4BDF-B08C-14B9DDD35176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B102BCE-5D47-45AD-A007-51D4D94012AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,7 +271,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -651,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,13 +764,12 @@
       <c r="N62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O62" s="7"/>
-      <c r="P62" s="8"/>
+      <c r="P62" s="7"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="N63" s="9"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="11"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="10"/>
     </row>
     <row r="64" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
